--- a/experiment_summary.xlsx
+++ b/experiment_summary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="122" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="233" uniqueCount="12">
   <si>
     <t>ConvLayers</t>
   </si>
@@ -426,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
@@ -434,8 +434,8 @@
   </sheetViews>
   <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="true"/>
-    <col min="2" max="2" width="8.140625" customWidth="true"/>
+    <col min="1" max="1" width="8.5703125" customWidth="true"/>
+    <col min="2" max="2" width="11.140625" customWidth="true"/>
     <col min="3" max="3" width="12.7109375" customWidth="true"/>
     <col min="4" max="4" width="9.5703125" customWidth="true"/>
     <col min="5" max="5" width="11.5703125" customWidth="true"/>
@@ -447,10 +447,10 @@
   <sheetData>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.25">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>5</v>
@@ -2444,6 +2444,992 @@
       </c>
       <c r="I69" s="0">
         <v>80.109999999999999</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="0">
+        <v>5</v>
+      </c>
+      <c r="C70" s="0">
+        <v>0.001</v>
+      </c>
+      <c r="D70" s="0">
+        <v>128</v>
+      </c>
+      <c r="E70" s="0">
+        <v>0</v>
+      </c>
+      <c r="F70" s="0">
+        <v>88.629999999999995</v>
+      </c>
+      <c r="G70" s="0">
+        <v>88.590000000000003</v>
+      </c>
+      <c r="H70" s="0">
+        <v>88.629999999999995</v>
+      </c>
+      <c r="I70" s="0">
+        <v>88.510000000000005</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="0">
+        <v>5</v>
+      </c>
+      <c r="C71" s="0">
+        <v>0.001</v>
+      </c>
+      <c r="D71" s="0">
+        <v>128</v>
+      </c>
+      <c r="E71" s="0">
+        <v>0</v>
+      </c>
+      <c r="F71" s="0">
+        <v>85.260000000000005</v>
+      </c>
+      <c r="G71" s="0">
+        <v>86.159999999999997</v>
+      </c>
+      <c r="H71" s="0">
+        <v>85.260000000000005</v>
+      </c>
+      <c r="I71" s="0">
+        <v>85.269999999999996</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" s="0">
+        <v>5</v>
+      </c>
+      <c r="C72" s="0">
+        <v>0.001</v>
+      </c>
+      <c r="D72" s="0">
+        <v>128</v>
+      </c>
+      <c r="E72" s="0">
+        <v>0</v>
+      </c>
+      <c r="F72" s="0">
+        <v>85.269999999999996</v>
+      </c>
+      <c r="G72" s="0">
+        <v>85.790000000000006</v>
+      </c>
+      <c r="H72" s="0">
+        <v>85.269999999999996</v>
+      </c>
+      <c r="I72" s="0">
+        <v>85.079999999999998</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="0">
+        <v>5</v>
+      </c>
+      <c r="C73" s="0">
+        <v>0.001</v>
+      </c>
+      <c r="D73" s="0">
+        <v>128</v>
+      </c>
+      <c r="E73" s="0">
+        <v>0</v>
+      </c>
+      <c r="F73" s="0">
+        <v>87.659999999999997</v>
+      </c>
+      <c r="G73" s="0">
+        <v>87.650000000000006</v>
+      </c>
+      <c r="H73" s="0">
+        <v>87.659999999999997</v>
+      </c>
+      <c r="I73" s="0">
+        <v>87.540000000000006</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="0">
+        <v>5</v>
+      </c>
+      <c r="C74" s="0">
+        <v>0.001</v>
+      </c>
+      <c r="D74" s="0">
+        <v>256</v>
+      </c>
+      <c r="E74" s="0">
+        <v>0</v>
+      </c>
+      <c r="F74" s="0">
+        <v>86.890000000000001</v>
+      </c>
+      <c r="G74" s="0">
+        <v>86.930000000000007</v>
+      </c>
+      <c r="H74" s="0">
+        <v>86.890000000000001</v>
+      </c>
+      <c r="I74" s="0">
+        <v>86.719999999999999</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="0">
+        <v>5</v>
+      </c>
+      <c r="C75" s="0">
+        <v>0.001</v>
+      </c>
+      <c r="D75" s="0">
+        <v>256</v>
+      </c>
+      <c r="E75" s="0">
+        <v>0</v>
+      </c>
+      <c r="F75" s="0">
+        <v>87.379999999999995</v>
+      </c>
+      <c r="G75" s="0">
+        <v>87.689999999999998</v>
+      </c>
+      <c r="H75" s="0">
+        <v>87.379999999999995</v>
+      </c>
+      <c r="I75" s="0">
+        <v>87.280000000000001</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="0">
+        <v>5</v>
+      </c>
+      <c r="C76" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="D76" s="0">
+        <v>256</v>
+      </c>
+      <c r="E76" s="0">
+        <v>0</v>
+      </c>
+      <c r="F76" s="0">
+        <v>88.959999999999994</v>
+      </c>
+      <c r="G76" s="0">
+        <v>88.959999999999994</v>
+      </c>
+      <c r="H76" s="0">
+        <v>88.959999999999994</v>
+      </c>
+      <c r="I76" s="0">
+        <v>88.840000000000003</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="0">
+        <v>5</v>
+      </c>
+      <c r="C77" s="0">
+        <v>0.01</v>
+      </c>
+      <c r="D77" s="0">
+        <v>64</v>
+      </c>
+      <c r="E77" s="0">
+        <v>0</v>
+      </c>
+      <c r="F77" s="0">
+        <v>51.299999999999997</v>
+      </c>
+      <c r="G77" s="0">
+        <v>50.93</v>
+      </c>
+      <c r="H77" s="0">
+        <v>51.299999999999997</v>
+      </c>
+      <c r="I77" s="0">
+        <v>48.469999999999999</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="0">
+        <v>5</v>
+      </c>
+      <c r="C78" s="0">
+        <v>0.001</v>
+      </c>
+      <c r="D78" s="0">
+        <v>128</v>
+      </c>
+      <c r="E78" s="0">
+        <v>0</v>
+      </c>
+      <c r="F78" s="0">
+        <v>88.439999999999998</v>
+      </c>
+      <c r="G78" s="0">
+        <v>88.430000000000007</v>
+      </c>
+      <c r="H78" s="0">
+        <v>88.439999999999998</v>
+      </c>
+      <c r="I78" s="0">
+        <v>88.329999999999998</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="0">
+        <v>5</v>
+      </c>
+      <c r="C79" s="0">
+        <v>0.001</v>
+      </c>
+      <c r="D79" s="0">
+        <v>128</v>
+      </c>
+      <c r="E79" s="0">
+        <v>0</v>
+      </c>
+      <c r="F79" s="0">
+        <v>87.090000000000003</v>
+      </c>
+      <c r="G79" s="0">
+        <v>87.099999999999994</v>
+      </c>
+      <c r="H79" s="0">
+        <v>87.090000000000003</v>
+      </c>
+      <c r="I79" s="0">
+        <v>86.930000000000007</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="0">
+        <v>5</v>
+      </c>
+      <c r="C80" s="0">
+        <v>0.001</v>
+      </c>
+      <c r="D80" s="0">
+        <v>256</v>
+      </c>
+      <c r="E80" s="0">
+        <v>0</v>
+      </c>
+      <c r="F80" s="0">
+        <v>86.219999999999999</v>
+      </c>
+      <c r="G80" s="0">
+        <v>86.25</v>
+      </c>
+      <c r="H80" s="0">
+        <v>86.219999999999999</v>
+      </c>
+      <c r="I80" s="0">
+        <v>86.049999999999997</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="0">
+        <v>5</v>
+      </c>
+      <c r="C81" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="D81" s="0">
+        <v>256</v>
+      </c>
+      <c r="E81" s="0">
+        <v>0</v>
+      </c>
+      <c r="F81" s="0">
+        <v>86.799999999999997</v>
+      </c>
+      <c r="G81" s="0">
+        <v>86.810000000000002</v>
+      </c>
+      <c r="H81" s="0">
+        <v>86.799999999999997</v>
+      </c>
+      <c r="I81" s="0">
+        <v>86.640000000000001</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="0">
+        <v>5</v>
+      </c>
+      <c r="C82" s="0">
+        <v>0.0050000000000000001</v>
+      </c>
+      <c r="D82" s="0">
+        <v>64</v>
+      </c>
+      <c r="E82" s="0">
+        <v>0</v>
+      </c>
+      <c r="F82" s="0">
+        <v>68.840000000000003</v>
+      </c>
+      <c r="G82" s="0">
+        <v>68.870000000000005</v>
+      </c>
+      <c r="H82" s="0">
+        <v>68.840000000000003</v>
+      </c>
+      <c r="I82" s="0">
+        <v>67.650000000000006</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83" s="0">
+        <v>5</v>
+      </c>
+      <c r="C83" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="D83" s="0">
+        <v>256</v>
+      </c>
+      <c r="E83" s="0">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="F83" s="0">
+        <v>87.049999999999997</v>
+      </c>
+      <c r="G83" s="0">
+        <v>87.069999999999993</v>
+      </c>
+      <c r="H83" s="0">
+        <v>87.049999999999997</v>
+      </c>
+      <c r="I83" s="0">
+        <v>86.890000000000001</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" s="0">
+        <v>5</v>
+      </c>
+      <c r="C84" s="0">
+        <v>0.01</v>
+      </c>
+      <c r="D84" s="0">
+        <v>128</v>
+      </c>
+      <c r="E84" s="0">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="F84" s="0">
+        <v>86.590000000000003</v>
+      </c>
+      <c r="G84" s="0">
+        <v>86.620000000000005</v>
+      </c>
+      <c r="H84" s="0">
+        <v>86.590000000000003</v>
+      </c>
+      <c r="I84" s="0">
+        <v>86.430000000000007</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="0">
+        <v>5</v>
+      </c>
+      <c r="C85" s="0">
+        <v>0.01</v>
+      </c>
+      <c r="D85" s="0">
+        <v>128</v>
+      </c>
+      <c r="E85" s="0">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="F85" s="0">
+        <v>84.530000000000001</v>
+      </c>
+      <c r="G85" s="0">
+        <v>84.620000000000005</v>
+      </c>
+      <c r="H85" s="0">
+        <v>84.530000000000001</v>
+      </c>
+      <c r="I85" s="0">
+        <v>84.310000000000002</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" s="0">
+        <v>5</v>
+      </c>
+      <c r="C86" s="0">
+        <v>0.01</v>
+      </c>
+      <c r="D86" s="0">
+        <v>256</v>
+      </c>
+      <c r="E86" s="0">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="F86" s="0">
+        <v>80.909999999999997</v>
+      </c>
+      <c r="G86" s="0">
+        <v>81.129999999999995</v>
+      </c>
+      <c r="H86" s="0">
+        <v>80.909999999999997</v>
+      </c>
+      <c r="I86" s="0">
+        <v>80.560000000000002</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" s="0">
+        <v>5</v>
+      </c>
+      <c r="C87" s="0">
+        <v>0.01</v>
+      </c>
+      <c r="D87" s="0">
+        <v>256</v>
+      </c>
+      <c r="E87" s="0">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="F87" s="0">
+        <v>87.170000000000002</v>
+      </c>
+      <c r="G87" s="0">
+        <v>87.180000000000007</v>
+      </c>
+      <c r="H87" s="0">
+        <v>87.170000000000002</v>
+      </c>
+      <c r="I87" s="0">
+        <v>87.010000000000005</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" s="0">
+        <v>5</v>
+      </c>
+      <c r="C88" s="0">
+        <v>0.01</v>
+      </c>
+      <c r="D88" s="0">
+        <v>64</v>
+      </c>
+      <c r="E88" s="0">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="F88" s="0">
+        <v>86.530000000000001</v>
+      </c>
+      <c r="G88" s="0">
+        <v>86.599999999999994</v>
+      </c>
+      <c r="H88" s="0">
+        <v>86.530000000000001</v>
+      </c>
+      <c r="I88" s="0">
+        <v>86.379999999999995</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" s="0">
+        <v>5</v>
+      </c>
+      <c r="C89" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="D89" s="0">
+        <v>256</v>
+      </c>
+      <c r="E89" s="0">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="F89" s="0">
+        <v>88.799999999999997</v>
+      </c>
+      <c r="G89" s="0">
+        <v>88.780000000000001</v>
+      </c>
+      <c r="H89" s="0">
+        <v>88.799999999999997</v>
+      </c>
+      <c r="I89" s="0">
+        <v>88.680000000000007</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" s="0">
+        <v>5</v>
+      </c>
+      <c r="C90" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="D90" s="0">
+        <v>256</v>
+      </c>
+      <c r="E90" s="0">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="F90" s="0">
+        <v>89.549999999999997</v>
+      </c>
+      <c r="G90" s="0">
+        <v>89.519999999999996</v>
+      </c>
+      <c r="H90" s="0">
+        <v>89.549999999999997</v>
+      </c>
+      <c r="I90" s="0">
+        <v>89.450000000000003</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91" s="0">
+        <v>5</v>
+      </c>
+      <c r="C91" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="D91" s="0">
+        <v>256</v>
+      </c>
+      <c r="E91" s="0">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="F91" s="0">
+        <v>89.859999999999999</v>
+      </c>
+      <c r="G91" s="0">
+        <v>89.840000000000003</v>
+      </c>
+      <c r="H91" s="0">
+        <v>89.859999999999999</v>
+      </c>
+      <c r="I91" s="0">
+        <v>89.780000000000001</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" s="0">
+        <v>5</v>
+      </c>
+      <c r="C92" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="D92" s="0">
+        <v>256</v>
+      </c>
+      <c r="E92" s="0">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="F92" s="0">
+        <v>86.549999999999997</v>
+      </c>
+      <c r="G92" s="0">
+        <v>86.739999999999995</v>
+      </c>
+      <c r="H92" s="0">
+        <v>86.549999999999997</v>
+      </c>
+      <c r="I92" s="0">
+        <v>86.400000000000006</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" s="0">
+        <v>5</v>
+      </c>
+      <c r="C93" s="0">
+        <v>0.02</v>
+      </c>
+      <c r="D93" s="0">
+        <v>256</v>
+      </c>
+      <c r="E93" s="0">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="F93" s="0">
+        <v>86.870000000000005</v>
+      </c>
+      <c r="G93" s="0">
+        <v>86.859999999999999</v>
+      </c>
+      <c r="H93" s="0">
+        <v>86.870000000000005</v>
+      </c>
+      <c r="I93" s="0">
+        <v>86.719999999999999</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94" s="0">
+        <v>5</v>
+      </c>
+      <c r="C94" s="0">
+        <v>0.0050000000000000001</v>
+      </c>
+      <c r="D94" s="0">
+        <v>64</v>
+      </c>
+      <c r="E94" s="0">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="F94" s="0">
+        <v>87.170000000000002</v>
+      </c>
+      <c r="G94" s="0">
+        <v>87.140000000000001</v>
+      </c>
+      <c r="H94" s="0">
+        <v>87.170000000000002</v>
+      </c>
+      <c r="I94" s="0">
+        <v>87.010000000000005</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" s="0">
+        <v>9</v>
+      </c>
+      <c r="C95" s="0">
+        <v>0.001</v>
+      </c>
+      <c r="D95" s="0">
+        <v>128</v>
+      </c>
+      <c r="E95" s="0">
+        <v>0</v>
+      </c>
+      <c r="F95" s="0">
+        <v>86.129999999999995</v>
+      </c>
+      <c r="G95" s="0">
+        <v>86.310000000000002</v>
+      </c>
+      <c r="H95" s="0">
+        <v>86.129999999999995</v>
+      </c>
+      <c r="I95" s="0">
+        <v>86.010000000000005</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" s="0">
+        <v>9</v>
+      </c>
+      <c r="C96" s="0">
+        <v>0.001</v>
+      </c>
+      <c r="D96" s="0">
+        <v>256</v>
+      </c>
+      <c r="E96" s="0">
+        <v>0</v>
+      </c>
+      <c r="F96" s="0">
+        <v>86.200000000000003</v>
+      </c>
+      <c r="G96" s="0">
+        <v>86.25</v>
+      </c>
+      <c r="H96" s="0">
+        <v>86.200000000000003</v>
+      </c>
+      <c r="I96" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" s="0">
+        <v>9</v>
+      </c>
+      <c r="C97" s="0">
+        <v>0.01</v>
+      </c>
+      <c r="D97" s="0">
+        <v>64</v>
+      </c>
+      <c r="E97" s="0">
+        <v>0</v>
+      </c>
+      <c r="F97" s="0">
+        <v>19.98</v>
+      </c>
+      <c r="G97" s="0">
+        <v>9.5099999999999998</v>
+      </c>
+      <c r="H97" s="0">
+        <v>19.98</v>
+      </c>
+      <c r="I97" s="0">
+        <v>11.69</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="0">
+        <v>9</v>
+      </c>
+      <c r="C98" s="0">
+        <v>0.001</v>
+      </c>
+      <c r="D98" s="0">
+        <v>128</v>
+      </c>
+      <c r="E98" s="0">
+        <v>0</v>
+      </c>
+      <c r="F98" s="0">
+        <v>83.239999999999995</v>
+      </c>
+      <c r="G98" s="0">
+        <v>83.349999999999994</v>
+      </c>
+      <c r="H98" s="0">
+        <v>83.239999999999995</v>
+      </c>
+      <c r="I98" s="0">
+        <v>83.069999999999993</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" s="0">
+        <v>9</v>
+      </c>
+      <c r="C99" s="0">
+        <v>0.001</v>
+      </c>
+      <c r="D99" s="0">
+        <v>256</v>
+      </c>
+      <c r="E99" s="0">
+        <v>0</v>
+      </c>
+      <c r="F99" s="0">
+        <v>85.670000000000002</v>
+      </c>
+      <c r="G99" s="0">
+        <v>85.590000000000003</v>
+      </c>
+      <c r="H99" s="0">
+        <v>85.670000000000002</v>
+      </c>
+      <c r="I99" s="0">
+        <v>85.540000000000006</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" s="0">
+        <v>9</v>
+      </c>
+      <c r="C100" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="D100" s="0">
+        <v>256</v>
+      </c>
+      <c r="E100" s="0">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="F100" s="0">
+        <v>84.599999999999994</v>
+      </c>
+      <c r="G100" s="0">
+        <v>84.689999999999998</v>
+      </c>
+      <c r="H100" s="0">
+        <v>84.599999999999994</v>
+      </c>
+      <c r="I100" s="0">
+        <v>84.510000000000005</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B101" s="0">
+        <v>9</v>
+      </c>
+      <c r="C101" s="0">
+        <v>0.01</v>
+      </c>
+      <c r="D101" s="0">
+        <v>128</v>
+      </c>
+      <c r="E101" s="0">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="F101" s="0">
+        <v>82.849999999999994</v>
+      </c>
+      <c r="G101" s="0">
+        <v>82.980000000000004</v>
+      </c>
+      <c r="H101" s="0">
+        <v>82.849999999999994</v>
+      </c>
+      <c r="I101" s="0">
+        <v>82.569999999999993</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102" s="0">
+        <v>9</v>
+      </c>
+      <c r="C102" s="0">
+        <v>0.01</v>
+      </c>
+      <c r="D102" s="0">
+        <v>256</v>
+      </c>
+      <c r="E102" s="0">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="F102" s="0">
+        <v>84.599999999999994</v>
+      </c>
+      <c r="G102" s="0">
+        <v>84.540000000000006</v>
+      </c>
+      <c r="H102" s="0">
+        <v>84.599999999999994</v>
+      </c>
+      <c r="I102" s="0">
+        <v>84.400000000000006</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" s="0">
+        <v>9</v>
+      </c>
+      <c r="C103" s="0">
+        <v>0.01</v>
+      </c>
+      <c r="D103" s="0">
+        <v>64</v>
+      </c>
+      <c r="E103" s="0">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="F103" s="0">
+        <v>84.060000000000002</v>
+      </c>
+      <c r="G103" s="0">
+        <v>84.040000000000006</v>
+      </c>
+      <c r="H103" s="0">
+        <v>84.060000000000002</v>
+      </c>
+      <c r="I103" s="0">
+        <v>83.650000000000006</v>
       </c>
     </row>
   </sheetData>

--- a/experiment_summary.xlsx
+++ b/experiment_summary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="233" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="348" uniqueCount="12">
   <si>
     <t>ConvLayers</t>
   </si>
@@ -426,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
@@ -2651,31 +2651,31 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B77" s="0">
         <v>5</v>
       </c>
       <c r="C77" s="0">
-        <v>0.01</v>
+        <v>0.0030000000000000001</v>
       </c>
       <c r="D77" s="0">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="E77" s="0">
         <v>0</v>
       </c>
       <c r="F77" s="0">
-        <v>51.299999999999997</v>
+        <v>86.439999999999998</v>
       </c>
       <c r="G77" s="0">
-        <v>50.93</v>
+        <v>86.640000000000001</v>
       </c>
       <c r="H77" s="0">
-        <v>51.299999999999997</v>
+        <v>86.439999999999998</v>
       </c>
       <c r="I77" s="0">
-        <v>48.469999999999999</v>
+        <v>86.260000000000005</v>
       </c>
     </row>
     <row r="78">
@@ -2686,25 +2686,25 @@
         <v>5</v>
       </c>
       <c r="C78" s="0">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="D78" s="0">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="E78" s="0">
         <v>0</v>
       </c>
       <c r="F78" s="0">
-        <v>88.439999999999998</v>
+        <v>51.299999999999997</v>
       </c>
       <c r="G78" s="0">
-        <v>88.430000000000007</v>
+        <v>50.93</v>
       </c>
       <c r="H78" s="0">
-        <v>88.439999999999998</v>
+        <v>51.299999999999997</v>
       </c>
       <c r="I78" s="0">
-        <v>88.329999999999998</v>
+        <v>48.469999999999999</v>
       </c>
     </row>
     <row r="79">
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F79" s="0">
-        <v>87.090000000000003</v>
+        <v>88.439999999999998</v>
       </c>
       <c r="G79" s="0">
-        <v>87.099999999999994</v>
+        <v>88.430000000000007</v>
       </c>
       <c r="H79" s="0">
-        <v>87.090000000000003</v>
+        <v>88.439999999999998</v>
       </c>
       <c r="I79" s="0">
-        <v>86.930000000000007</v>
+        <v>88.329999999999998</v>
       </c>
     </row>
     <row r="80">
@@ -2747,22 +2747,22 @@
         <v>0.001</v>
       </c>
       <c r="D80" s="0">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="E80" s="0">
         <v>0</v>
       </c>
       <c r="F80" s="0">
-        <v>86.219999999999999</v>
+        <v>87.090000000000003</v>
       </c>
       <c r="G80" s="0">
-        <v>86.25</v>
+        <v>87.099999999999994</v>
       </c>
       <c r="H80" s="0">
-        <v>86.219999999999999</v>
+        <v>87.090000000000003</v>
       </c>
       <c r="I80" s="0">
-        <v>86.049999999999997</v>
+        <v>86.930000000000007</v>
       </c>
     </row>
     <row r="81">
@@ -2773,7 +2773,7 @@
         <v>5</v>
       </c>
       <c r="C81" s="0">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="D81" s="0">
         <v>256</v>
@@ -2782,16 +2782,16 @@
         <v>0</v>
       </c>
       <c r="F81" s="0">
-        <v>86.799999999999997</v>
+        <v>86.219999999999999</v>
       </c>
       <c r="G81" s="0">
-        <v>86.810000000000002</v>
+        <v>86.25</v>
       </c>
       <c r="H81" s="0">
-        <v>86.799999999999997</v>
+        <v>86.219999999999999</v>
       </c>
       <c r="I81" s="0">
-        <v>86.640000000000001</v>
+        <v>86.049999999999997</v>
       </c>
     </row>
     <row r="82">
@@ -2802,54 +2802,54 @@
         <v>5</v>
       </c>
       <c r="C82" s="0">
-        <v>0.0050000000000000001</v>
+        <v>0.002</v>
       </c>
       <c r="D82" s="0">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="E82" s="0">
         <v>0</v>
       </c>
       <c r="F82" s="0">
-        <v>68.840000000000003</v>
+        <v>86.799999999999997</v>
       </c>
       <c r="G82" s="0">
-        <v>68.870000000000005</v>
+        <v>86.810000000000002</v>
       </c>
       <c r="H82" s="0">
-        <v>68.840000000000003</v>
+        <v>86.799999999999997</v>
       </c>
       <c r="I82" s="0">
-        <v>67.650000000000006</v>
+        <v>86.640000000000001</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B83" s="0">
         <v>5</v>
       </c>
       <c r="C83" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.0050000000000000001</v>
       </c>
       <c r="D83" s="0">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="E83" s="0">
-        <v>0.90000000000000002</v>
+        <v>0</v>
       </c>
       <c r="F83" s="0">
-        <v>87.049999999999997</v>
+        <v>68.840000000000003</v>
       </c>
       <c r="G83" s="0">
-        <v>87.069999999999993</v>
+        <v>68.870000000000005</v>
       </c>
       <c r="H83" s="0">
-        <v>87.049999999999997</v>
+        <v>68.840000000000003</v>
       </c>
       <c r="I83" s="0">
-        <v>86.890000000000001</v>
+        <v>67.650000000000006</v>
       </c>
     </row>
     <row r="84">
@@ -2860,25 +2860,25 @@
         <v>5</v>
       </c>
       <c r="C84" s="0">
-        <v>0.01</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="D84" s="0">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="E84" s="0">
         <v>0.90000000000000002</v>
       </c>
       <c r="F84" s="0">
-        <v>86.590000000000003</v>
+        <v>87.049999999999997</v>
       </c>
       <c r="G84" s="0">
-        <v>86.620000000000005</v>
+        <v>87.069999999999993</v>
       </c>
       <c r="H84" s="0">
-        <v>86.590000000000003</v>
+        <v>87.049999999999997</v>
       </c>
       <c r="I84" s="0">
-        <v>86.430000000000007</v>
+        <v>86.890000000000001</v>
       </c>
     </row>
     <row r="85">
@@ -2898,16 +2898,16 @@
         <v>0.90000000000000002</v>
       </c>
       <c r="F85" s="0">
-        <v>84.530000000000001</v>
+        <v>86.590000000000003</v>
       </c>
       <c r="G85" s="0">
-        <v>84.620000000000005</v>
+        <v>86.620000000000005</v>
       </c>
       <c r="H85" s="0">
-        <v>84.530000000000001</v>
+        <v>86.590000000000003</v>
       </c>
       <c r="I85" s="0">
-        <v>84.310000000000002</v>
+        <v>86.430000000000007</v>
       </c>
     </row>
     <row r="86">
@@ -2921,22 +2921,22 @@
         <v>0.01</v>
       </c>
       <c r="D86" s="0">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="E86" s="0">
         <v>0.90000000000000002</v>
       </c>
       <c r="F86" s="0">
-        <v>80.909999999999997</v>
+        <v>84.530000000000001</v>
       </c>
       <c r="G86" s="0">
-        <v>81.129999999999995</v>
+        <v>84.620000000000005</v>
       </c>
       <c r="H86" s="0">
-        <v>80.909999999999997</v>
+        <v>84.530000000000001</v>
       </c>
       <c r="I86" s="0">
-        <v>80.560000000000002</v>
+        <v>84.310000000000002</v>
       </c>
     </row>
     <row r="87">
@@ -2956,16 +2956,16 @@
         <v>0.90000000000000002</v>
       </c>
       <c r="F87" s="0">
-        <v>87.170000000000002</v>
+        <v>80.909999999999997</v>
       </c>
       <c r="G87" s="0">
-        <v>87.180000000000007</v>
+        <v>81.129999999999995</v>
       </c>
       <c r="H87" s="0">
-        <v>87.170000000000002</v>
+        <v>80.909999999999997</v>
       </c>
       <c r="I87" s="0">
-        <v>87.010000000000005</v>
+        <v>80.560000000000002</v>
       </c>
     </row>
     <row r="88">
@@ -2979,22 +2979,22 @@
         <v>0.01</v>
       </c>
       <c r="D88" s="0">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="E88" s="0">
         <v>0.90000000000000002</v>
       </c>
       <c r="F88" s="0">
-        <v>86.530000000000001</v>
+        <v>87.170000000000002</v>
       </c>
       <c r="G88" s="0">
-        <v>86.599999999999994</v>
+        <v>87.180000000000007</v>
       </c>
       <c r="H88" s="0">
-        <v>86.530000000000001</v>
+        <v>87.170000000000002</v>
       </c>
       <c r="I88" s="0">
-        <v>86.379999999999995</v>
+        <v>87.010000000000005</v>
       </c>
     </row>
     <row r="89">
@@ -3005,25 +3005,25 @@
         <v>5</v>
       </c>
       <c r="C89" s="0">
-        <v>0.20000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="D89" s="0">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="E89" s="0">
         <v>0.90000000000000002</v>
       </c>
       <c r="F89" s="0">
-        <v>88.799999999999997</v>
+        <v>86.530000000000001</v>
       </c>
       <c r="G89" s="0">
-        <v>88.780000000000001</v>
+        <v>86.599999999999994</v>
       </c>
       <c r="H89" s="0">
-        <v>88.799999999999997</v>
+        <v>86.530000000000001</v>
       </c>
       <c r="I89" s="0">
-        <v>88.680000000000007</v>
+        <v>86.379999999999995</v>
       </c>
     </row>
     <row r="90">
@@ -3043,16 +3043,16 @@
         <v>0.90000000000000002</v>
       </c>
       <c r="F90" s="0">
-        <v>89.549999999999997</v>
+        <v>88.5</v>
       </c>
       <c r="G90" s="0">
-        <v>89.519999999999996</v>
+        <v>88.480000000000004</v>
       </c>
       <c r="H90" s="0">
-        <v>89.549999999999997</v>
+        <v>88.5</v>
       </c>
       <c r="I90" s="0">
-        <v>89.450000000000003</v>
+        <v>88.390000000000001</v>
       </c>
     </row>
     <row r="91">
@@ -3072,16 +3072,16 @@
         <v>0.90000000000000002</v>
       </c>
       <c r="F91" s="0">
-        <v>89.859999999999999</v>
+        <v>88.709999999999994</v>
       </c>
       <c r="G91" s="0">
-        <v>89.840000000000003</v>
+        <v>88.700000000000003</v>
       </c>
       <c r="H91" s="0">
-        <v>89.859999999999999</v>
+        <v>88.709999999999994</v>
       </c>
       <c r="I91" s="0">
-        <v>89.780000000000001</v>
+        <v>88.599999999999994</v>
       </c>
     </row>
     <row r="92">
@@ -3101,16 +3101,16 @@
         <v>0.90000000000000002</v>
       </c>
       <c r="F92" s="0">
-        <v>86.549999999999997</v>
+        <v>88.799999999999997</v>
       </c>
       <c r="G92" s="0">
-        <v>86.739999999999995</v>
+        <v>88.780000000000001</v>
       </c>
       <c r="H92" s="0">
-        <v>86.549999999999997</v>
+        <v>88.799999999999997</v>
       </c>
       <c r="I92" s="0">
-        <v>86.400000000000006</v>
+        <v>88.680000000000007</v>
       </c>
     </row>
     <row r="93">
@@ -3121,7 +3121,7 @@
         <v>5</v>
       </c>
       <c r="C93" s="0">
-        <v>0.02</v>
+        <v>0.20000000000000001</v>
       </c>
       <c r="D93" s="0">
         <v>256</v>
@@ -3130,16 +3130,16 @@
         <v>0.90000000000000002</v>
       </c>
       <c r="F93" s="0">
-        <v>86.870000000000005</v>
+        <v>89.549999999999997</v>
       </c>
       <c r="G93" s="0">
-        <v>86.859999999999999</v>
+        <v>89.519999999999996</v>
       </c>
       <c r="H93" s="0">
-        <v>86.870000000000005</v>
+        <v>89.549999999999997</v>
       </c>
       <c r="I93" s="0">
-        <v>86.719999999999999</v>
+        <v>89.450000000000003</v>
       </c>
     </row>
     <row r="94">
@@ -3150,146 +3150,146 @@
         <v>5</v>
       </c>
       <c r="C94" s="0">
-        <v>0.0050000000000000001</v>
+        <v>0.20000000000000001</v>
       </c>
       <c r="D94" s="0">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="E94" s="0">
         <v>0.90000000000000002</v>
       </c>
       <c r="F94" s="0">
-        <v>87.170000000000002</v>
+        <v>89.859999999999999</v>
       </c>
       <c r="G94" s="0">
-        <v>87.140000000000001</v>
+        <v>89.840000000000003</v>
       </c>
       <c r="H94" s="0">
-        <v>87.170000000000002</v>
+        <v>89.859999999999999</v>
       </c>
       <c r="I94" s="0">
-        <v>87.010000000000005</v>
+        <v>89.780000000000001</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B95" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C95" s="0">
-        <v>0.001</v>
+        <v>0.20000000000000001</v>
       </c>
       <c r="D95" s="0">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="E95" s="0">
-        <v>0</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="F95" s="0">
-        <v>86.129999999999995</v>
+        <v>86.549999999999997</v>
       </c>
       <c r="G95" s="0">
-        <v>86.310000000000002</v>
+        <v>86.739999999999995</v>
       </c>
       <c r="H95" s="0">
-        <v>86.129999999999995</v>
+        <v>86.549999999999997</v>
       </c>
       <c r="I95" s="0">
-        <v>86.010000000000005</v>
+        <v>86.400000000000006</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B96" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C96" s="0">
-        <v>0.001</v>
+        <v>0.02</v>
       </c>
       <c r="D96" s="0">
         <v>256</v>
       </c>
       <c r="E96" s="0">
-        <v>0</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="F96" s="0">
-        <v>86.200000000000003</v>
+        <v>86.870000000000005</v>
       </c>
       <c r="G96" s="0">
-        <v>86.25</v>
+        <v>86.859999999999999</v>
       </c>
       <c r="H96" s="0">
-        <v>86.200000000000003</v>
+        <v>86.870000000000005</v>
       </c>
       <c r="I96" s="0">
-        <v>86</v>
+        <v>86.719999999999999</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B97" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C97" s="0">
-        <v>0.01</v>
+        <v>0.29999999999999999</v>
       </c>
       <c r="D97" s="0">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="E97" s="0">
-        <v>0</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="F97" s="0">
-        <v>19.98</v>
+        <v>88.079999999999998</v>
       </c>
       <c r="G97" s="0">
-        <v>9.5099999999999998</v>
+        <v>88.060000000000002</v>
       </c>
       <c r="H97" s="0">
-        <v>19.98</v>
+        <v>88.079999999999998</v>
       </c>
       <c r="I97" s="0">
-        <v>11.69</v>
+        <v>87.939999999999998</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B98" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C98" s="0">
-        <v>0.001</v>
+        <v>0.0050000000000000001</v>
       </c>
       <c r="D98" s="0">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="E98" s="0">
-        <v>0</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="F98" s="0">
-        <v>83.239999999999995</v>
+        <v>87.170000000000002</v>
       </c>
       <c r="G98" s="0">
-        <v>83.349999999999994</v>
+        <v>87.140000000000001</v>
       </c>
       <c r="H98" s="0">
-        <v>83.239999999999995</v>
+        <v>87.170000000000002</v>
       </c>
       <c r="I98" s="0">
-        <v>83.069999999999993</v>
+        <v>87.010000000000005</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B99" s="0">
         <v>9</v>
@@ -3298,56 +3298,56 @@
         <v>0.001</v>
       </c>
       <c r="D99" s="0">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="E99" s="0">
         <v>0</v>
       </c>
       <c r="F99" s="0">
-        <v>85.670000000000002</v>
+        <v>86.129999999999995</v>
       </c>
       <c r="G99" s="0">
-        <v>85.590000000000003</v>
+        <v>86.310000000000002</v>
       </c>
       <c r="H99" s="0">
-        <v>85.670000000000002</v>
+        <v>86.129999999999995</v>
       </c>
       <c r="I99" s="0">
-        <v>85.540000000000006</v>
+        <v>86.010000000000005</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B100" s="0">
         <v>9</v>
       </c>
       <c r="C100" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.001</v>
       </c>
       <c r="D100" s="0">
         <v>256</v>
       </c>
       <c r="E100" s="0">
-        <v>0.90000000000000002</v>
+        <v>0</v>
       </c>
       <c r="F100" s="0">
-        <v>84.599999999999994</v>
+        <v>86.200000000000003</v>
       </c>
       <c r="G100" s="0">
-        <v>84.689999999999998</v>
+        <v>86.25</v>
       </c>
       <c r="H100" s="0">
-        <v>84.599999999999994</v>
+        <v>86.200000000000003</v>
       </c>
       <c r="I100" s="0">
-        <v>84.510000000000005</v>
+        <v>86</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B101" s="0">
         <v>9</v>
@@ -3356,79 +3356,195 @@
         <v>0.01</v>
       </c>
       <c r="D101" s="0">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="E101" s="0">
-        <v>0.90000000000000002</v>
+        <v>0</v>
       </c>
       <c r="F101" s="0">
-        <v>82.849999999999994</v>
+        <v>19.98</v>
       </c>
       <c r="G101" s="0">
-        <v>82.980000000000004</v>
+        <v>9.5099999999999998</v>
       </c>
       <c r="H101" s="0">
-        <v>82.849999999999994</v>
+        <v>19.98</v>
       </c>
       <c r="I101" s="0">
-        <v>82.569999999999993</v>
+        <v>11.69</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B102" s="0">
         <v>9</v>
       </c>
       <c r="C102" s="0">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="D102" s="0">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="E102" s="0">
-        <v>0.90000000000000002</v>
+        <v>0</v>
       </c>
       <c r="F102" s="0">
-        <v>84.599999999999994</v>
+        <v>83.239999999999995</v>
       </c>
       <c r="G102" s="0">
-        <v>84.540000000000006</v>
+        <v>83.349999999999994</v>
       </c>
       <c r="H102" s="0">
-        <v>84.599999999999994</v>
+        <v>83.239999999999995</v>
       </c>
       <c r="I102" s="0">
-        <v>84.400000000000006</v>
+        <v>83.069999999999993</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B103" s="0">
         <v>9</v>
       </c>
       <c r="C103" s="0">
+        <v>0.001</v>
+      </c>
+      <c r="D103" s="0">
+        <v>256</v>
+      </c>
+      <c r="E103" s="0">
+        <v>0</v>
+      </c>
+      <c r="F103" s="0">
+        <v>85.670000000000002</v>
+      </c>
+      <c r="G103" s="0">
+        <v>85.590000000000003</v>
+      </c>
+      <c r="H103" s="0">
+        <v>85.670000000000002</v>
+      </c>
+      <c r="I103" s="0">
+        <v>85.540000000000006</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B104" s="0">
+        <v>9</v>
+      </c>
+      <c r="C104" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="D104" s="0">
+        <v>256</v>
+      </c>
+      <c r="E104" s="0">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="F104" s="0">
+        <v>84.599999999999994</v>
+      </c>
+      <c r="G104" s="0">
+        <v>84.689999999999998</v>
+      </c>
+      <c r="H104" s="0">
+        <v>84.599999999999994</v>
+      </c>
+      <c r="I104" s="0">
+        <v>84.510000000000005</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B105" s="0">
+        <v>9</v>
+      </c>
+      <c r="C105" s="0">
         <v>0.01</v>
       </c>
-      <c r="D103" s="0">
+      <c r="D105" s="0">
+        <v>128</v>
+      </c>
+      <c r="E105" s="0">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="F105" s="0">
+        <v>82.849999999999994</v>
+      </c>
+      <c r="G105" s="0">
+        <v>82.980000000000004</v>
+      </c>
+      <c r="H105" s="0">
+        <v>82.849999999999994</v>
+      </c>
+      <c r="I105" s="0">
+        <v>82.569999999999993</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" s="0">
+        <v>9</v>
+      </c>
+      <c r="C106" s="0">
+        <v>0.01</v>
+      </c>
+      <c r="D106" s="0">
+        <v>256</v>
+      </c>
+      <c r="E106" s="0">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="F106" s="0">
+        <v>84.599999999999994</v>
+      </c>
+      <c r="G106" s="0">
+        <v>84.540000000000006</v>
+      </c>
+      <c r="H106" s="0">
+        <v>84.599999999999994</v>
+      </c>
+      <c r="I106" s="0">
+        <v>84.400000000000006</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" s="0">
+        <v>9</v>
+      </c>
+      <c r="C107" s="0">
+        <v>0.01</v>
+      </c>
+      <c r="D107" s="0">
         <v>64</v>
       </c>
-      <c r="E103" s="0">
-        <v>0.90000000000000002</v>
-      </c>
-      <c r="F103" s="0">
+      <c r="E107" s="0">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="F107" s="0">
         <v>84.060000000000002</v>
       </c>
-      <c r="G103" s="0">
+      <c r="G107" s="0">
         <v>84.040000000000006</v>
       </c>
-      <c r="H103" s="0">
+      <c r="H107" s="0">
         <v>84.060000000000002</v>
       </c>
-      <c r="I103" s="0">
+      <c r="I107" s="0">
         <v>83.650000000000006</v>
       </c>
     </row>
